--- a/cities.xlsx
+++ b/cities.xlsx
@@ -185,9 +185,6 @@
     <t>MC2JACRC0RDB00014</t>
   </si>
   <si>
-    <t>mangoliya, indore</t>
-  </si>
-  <si>
     <t>MC2JACRC0PC689074</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>MC2JACRC0RHB00048</t>
+  </si>
+  <si>
+    <t>mangaliya, indore</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1804,19 +1804,19 @@
     </row>
     <row r="30" spans="1:5" ht="19.5">
       <c r="A30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="9">
+        <v>22.816700000000001</v>
+      </c>
+      <c r="C30" s="10">
+        <v>75.925600000000003</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" s="9">
-        <v>46.862499999999997</v>
-      </c>
-      <c r="C30" s="10">
-        <v>103.8467</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29.5">
@@ -1833,12 +1833,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="35">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="12">
         <v>22.598099999999999</v>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="39">
@@ -1867,12 +1867,12 @@
         <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="6">
         <v>30.901</v>
@@ -1884,12 +1884,12 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="17">
         <v>28.280889999999999</v>
@@ -1901,12 +1901,12 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="35">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="12">
         <v>28.6692</v>
@@ -1918,12 +1918,12 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="17">
         <v>28.280889999999999</v>
@@ -1935,12 +1935,12 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.5">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="17">
         <v>28.280889999999999</v>
@@ -1952,12 +1952,12 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="35">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="12">
         <v>28.474399999999999</v>
@@ -1969,12 +1969,12 @@
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="6">
         <v>30.381900000000002</v>
@@ -1986,12 +1986,12 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="35">
       <c r="A41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="12">
         <v>28.6692</v>
@@ -2003,12 +2003,12 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="35">
       <c r="A42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="12">
         <v>28.895499999999998</v>
@@ -2020,12 +2020,12 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="35">
       <c r="A43" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="12">
         <v>28.408899999999999</v>
@@ -2037,12 +2037,12 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="35">
       <c r="A44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="12">
         <v>28.854900000000001</v>
@@ -2054,12 +2054,12 @@
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="35">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="12">
         <v>28.568200000000001</v>
@@ -2071,12 +2071,12 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="33.5">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="6">
         <v>28.691800000000001</v>
@@ -2088,12 +2088,12 @@
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="12">
         <v>28.605499999999999</v>
@@ -2105,12 +2105,12 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="12">
         <v>28.993099999999998</v>
@@ -2122,12 +2122,12 @@
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31">
       <c r="A49" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="14">
         <v>29.031600000000001</v>
@@ -2139,12 +2139,12 @@
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="15">
         <v>29.4992175</v>
@@ -2156,12 +2156,12 @@
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="31">
       <c r="A51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="14">
         <v>20.056100000000001</v>
@@ -2173,12 +2173,12 @@
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="35">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="12">
         <v>28.0229</v>
@@ -2190,12 +2190,12 @@
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="31">
       <c r="A53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="14">
         <v>20.056100000000001</v>
@@ -2207,12 +2207,12 @@
         <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19.5">
       <c r="A54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" s="9">
         <v>20.067540999999999</v>
@@ -2224,12 +2224,12 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19.5">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="9">
         <v>20.067540999999999</v>
@@ -2241,12 +2241,12 @@
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="31">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="14">
         <v>20.056100000000001</v>
@@ -2258,12 +2258,12 @@
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="32.5">
       <c r="A57" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="14">
         <v>20.056100000000001</v>
@@ -2275,12 +2275,12 @@
         <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.5">
       <c r="A58" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" s="9">
         <v>20.067540999999999</v>
@@ -2292,12 +2292,12 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31">
       <c r="A59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="14">
         <v>20.056100000000001</v>
@@ -2309,12 +2309,12 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="35">
       <c r="A60" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="12">
         <v>23.520399999999999</v>
@@ -2326,12 +2326,12 @@
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="35">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="12">
         <v>28.408899999999999</v>
@@ -2343,12 +2343,12 @@
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29.5">
       <c r="A62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" s="20">
         <v>18.520399999999999</v>
@@ -2360,12 +2360,12 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="14">
         <v>21.272600000000001</v>
@@ -2377,12 +2377,12 @@
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="31">
       <c r="A64" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="14">
         <v>21.272600000000001</v>
@@ -2394,12 +2394,12 @@
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="31">
       <c r="A65" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="14">
         <v>21.272600000000001</v>
@@ -2411,12 +2411,12 @@
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="35">
       <c r="A66" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" s="12">
         <v>24.199000000000002</v>
@@ -2428,12 +2428,12 @@
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="35">
       <c r="A67" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" s="12">
         <v>24.199000000000002</v>
@@ -2445,12 +2445,12 @@
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="35">
       <c r="A68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="12">
         <v>24.199000000000002</v>
@@ -2462,12 +2462,12 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="35">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="12">
         <v>24.199000000000002</v>
@@ -2479,12 +2479,12 @@
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="35">
       <c r="A70" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="12">
         <v>24.199000000000002</v>
@@ -2496,12 +2496,12 @@
         <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="35">
       <c r="A71" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="12">
         <v>24.199000000000002</v>
@@ -2513,12 +2513,12 @@
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="35">
       <c r="A72" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="12">
         <v>24.199000000000002</v>
@@ -2530,12 +2530,12 @@
         <v>5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="35">
       <c r="A73" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="12">
         <v>24.199000000000002</v>
@@ -2547,12 +2547,12 @@
         <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="35">
       <c r="A74" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="12">
         <v>24.199000000000002</v>
@@ -2564,12 +2564,12 @@
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="35">
       <c r="A75" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="12">
         <v>24.199000000000002</v>
@@ -2581,12 +2581,12 @@
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="14">
         <v>24.212900000000001</v>
@@ -2598,12 +2598,12 @@
         <v>5</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29.5">
       <c r="A77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" s="7">
         <v>22.742100000000001</v>
@@ -2615,12 +2615,12 @@
         <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="32.5">
       <c r="A78" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" s="14">
         <v>24.212900000000001</v>
@@ -2632,12 +2632,12 @@
         <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="22">
         <v>12.768675999999999</v>
@@ -2649,12 +2649,12 @@
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="35">
       <c r="A80" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="12">
         <v>24.199000000000002</v>
@@ -2666,12 +2666,12 @@
         <v>5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="35">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" s="12">
         <v>24.199000000000002</v>
@@ -2683,12 +2683,12 @@
         <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="35">
       <c r="A82" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" s="12">
         <v>24.199000000000002</v>
@@ -2700,12 +2700,12 @@
         <v>5</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="32.5">
       <c r="A83" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="14">
         <v>24.212900000000001</v>
@@ -2717,12 +2717,12 @@
         <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="32.5">
       <c r="A84" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="14">
         <v>24.212900000000001</v>
@@ -2734,12 +2734,12 @@
         <v>5</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="32.5">
       <c r="A85" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="14">
         <v>24.212900000000001</v>
@@ -2751,12 +2751,12 @@
         <v>5</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="32.5">
       <c r="A86" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="14">
         <v>24.212900000000001</v>
@@ -2768,12 +2768,12 @@
         <v>5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="35">
       <c r="A87" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" s="12">
         <v>24.199000000000002</v>
@@ -2785,12 +2785,12 @@
         <v>5</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="35">
       <c r="A88" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" s="12">
         <v>24.199000000000002</v>
@@ -2802,12 +2802,12 @@
         <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="32.5">
       <c r="A89" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="14">
         <v>24.212900000000001</v>
@@ -2819,12 +2819,12 @@
         <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="35">
       <c r="A90" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="12">
         <v>24.199000000000002</v>
@@ -2836,12 +2836,12 @@
         <v>5</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="35">
       <c r="A91" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="12">
         <v>29.218299999999999</v>
@@ -2853,12 +2853,12 @@
         <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="31">
       <c r="A92" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B92" s="14">
         <v>29.840399999999999</v>
@@ -2870,12 +2870,12 @@
         <v>6</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="31">
       <c r="A93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" s="14">
         <v>29.840399999999999</v>
@@ -2887,12 +2887,12 @@
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="29">
       <c r="A94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94" s="11">
         <v>29.65</v>
@@ -2904,12 +2904,12 @@
         <v>6</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30">
       <c r="A95" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" s="24">
         <v>32.266813999999997</v>
@@ -2921,12 +2921,12 @@
         <v>6</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="32.5">
       <c r="A96" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B96" s="14">
         <v>29.555499999999999</v>
@@ -2938,12 +2938,12 @@
         <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="32.5">
       <c r="A97" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B97" s="14">
         <v>8.3199000000000005</v>
@@ -2955,12 +2955,12 @@
         <v>6</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29">
       <c r="A98" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B98" s="15">
         <v>8.2316161999999995</v>
@@ -2972,29 +2972,29 @@
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="32.5">
       <c r="A99" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" s="14">
-        <v>8.2639999999999993</v>
+        <v>8.2643199999999997</v>
       </c>
       <c r="C99" s="14">
-        <v>8.2669999999999995</v>
+        <v>77.683480000000003</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="31">
       <c r="A100" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B100" s="14">
         <v>19.281300000000002</v>
@@ -3006,12 +3006,12 @@
         <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="35">
       <c r="A101" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" s="12">
         <v>28.147300000000001</v>
@@ -3023,12 +3023,12 @@
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="31">
       <c r="A102" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="14">
         <v>28.738299999999999</v>
@@ -3040,12 +3040,12 @@
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="31">
       <c r="A103" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B103" s="14">
         <v>19.117599999999999</v>
@@ -3057,12 +3057,12 @@
         <v>4</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="31">
       <c r="A104" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B104" s="14">
         <v>19.281300000000002</v>
@@ -3074,12 +3074,12 @@
         <v>4</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="31">
       <c r="A105" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="14">
         <v>19.281300000000002</v>
@@ -3091,12 +3091,12 @@
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="31">
       <c r="A106" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B106" s="14">
         <v>19.246700000000001</v>
@@ -3108,12 +3108,12 @@
         <v>4</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="31">
       <c r="A107" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107" s="14">
         <v>28.738299999999999</v>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="31">
@@ -3142,12 +3142,12 @@
         <v>4</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="35">
       <c r="A109" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="12">
         <v>28.7041</v>
@@ -3159,12 +3159,12 @@
         <v>4</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="31">
       <c r="A110" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B110" s="14">
         <v>19.246700000000001</v>
@@ -3176,12 +3176,12 @@
         <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="35">
       <c r="A111" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B111" s="12">
         <v>13.084300000000001</v>
@@ -3193,12 +3193,12 @@
         <v>4</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="35">
       <c r="A112" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" s="12">
         <v>13.084300000000001</v>
@@ -3210,12 +3210,12 @@
         <v>4</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="35">
       <c r="A113" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" s="12">
         <v>28.7041</v>
@@ -3227,12 +3227,12 @@
         <v>4</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="35">
       <c r="A114" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B114" s="12">
         <v>28.7041</v>
@@ -3244,12 +3244,12 @@
         <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="35">
       <c r="A115" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B115" s="12">
         <v>19.0596</v>
@@ -3261,12 +3261,12 @@
         <v>4</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="35">
       <c r="A116" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="12">
         <v>12.9716</v>
@@ -3278,12 +3278,12 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="35">
       <c r="A117" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B117" s="12">
         <v>12.9716</v>
@@ -3295,12 +3295,12 @@
         <v>4</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="31">
       <c r="A118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B118" s="14">
         <v>12.709099999999999</v>
@@ -3312,12 +3312,12 @@
         <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="35">
       <c r="A119" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B119" s="12">
         <v>28.6692</v>
@@ -3329,12 +3329,12 @@
         <v>4</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="35">
       <c r="A120" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B120" s="12">
         <v>13.1227</v>
@@ -3346,12 +3346,12 @@
         <v>4</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="35">
       <c r="A121" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B121" s="12">
         <v>12.9716</v>
@@ -3363,12 +3363,12 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="31">
       <c r="A122" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" s="14">
         <v>13.3339</v>
@@ -3380,12 +3380,12 @@
         <v>4</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="35">
       <c r="A123" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123" s="12">
         <v>13.084300000000001</v>
@@ -3397,12 +3397,12 @@
         <v>4</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="35">
       <c r="A124" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B124" s="12">
         <v>12.9625</v>
@@ -3414,12 +3414,12 @@
         <v>4</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="29">
       <c r="A125" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125" s="26">
         <v>22.744108000000001</v>
@@ -3431,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
@@ -3448,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
@@ -3465,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30">
@@ -3482,12 +3482,12 @@
         <v>7</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="35">
       <c r="A129" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B129" s="12">
         <v>22.5505</v>
@@ -3499,12 +3499,12 @@
         <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="35">
       <c r="A130" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B130" s="12">
         <v>26.846699999999998</v>
@@ -3516,12 +3516,12 @@
         <v>8</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="31">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="14">
         <v>19.281300000000002</v>
@@ -3533,7 +3533,7 @@
         <v>8</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29.5">
@@ -3550,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29.5">
@@ -3567,7 +3567,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="29.5">
@@ -3584,7 +3584,7 @@
         <v>8</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="29.5">
@@ -3601,7 +3601,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="29.5">
@@ -3618,7 +3618,7 @@
         <v>8</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
